--- a/config_aomi_9.21/game_module_config.xlsx
+++ b/config_aomi_9.21/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3897" uniqueCount="1028">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2637" uniqueCount="1026">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3893,14 +3893,6 @@
   </si>
   <si>
     <t>act_ty_zp1_style/act_ty_zp1_007</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_028_dlphb</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_act_base_style/sys_act_base_weekly_033</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -4600,10 +4592,10 @@
   <dimension ref="A1:I349"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C305" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C245" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B321" sqref="B321"/>
+      <selection pane="bottomRight" activeCell="H260" sqref="H260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -11200,7 +11192,7 @@
         <v>751</v>
       </c>
       <c r="E260" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F260" s="5">
         <v>1</v>
@@ -12671,7 +12663,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="48" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C317" s="41" t="s">
         <v>928</v>
@@ -12694,7 +12686,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="48" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C318" s="57" t="s">
         <v>1012</v>
@@ -12717,7 +12709,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="48" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C319" s="41" t="s">
         <v>930</v>
@@ -12763,7 +12755,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="52" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C321" s="41" t="s">
         <v>934</v>
@@ -13122,7 +13114,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="9" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C335" s="62" t="s">
         <v>1011</v>
